--- a/wow/retrowow.xlsx
+++ b/wow/retrowow.xlsx
@@ -4,13 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6103" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="alts" sheetId="1" r:id="rId1"/>
-    <sheet name="chars" sheetId="3" r:id="rId2"/>
-    <sheet name="le me" sheetId="2" r:id="rId3"/>
+    <sheet name="fr" sheetId="4" r:id="rId2"/>
+    <sheet name="chars" sheetId="3" r:id="rId3"/>
+    <sheet name="le me" sheetId="2" r:id="rId4"/>
+    <sheet name="druid theorycrafting" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'le me'!$A$1:$J$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -418,12 +423,454 @@
         </r>
       </text>
     </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ud mage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>male elf rogue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">gnome war
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>gnome warlock</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>orc hunter</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>spriest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>troll mage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>orc hunter</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ud mage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>orc sham</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ud rogue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>elf priest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>human pal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>trol sham</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dwarf war</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>human war</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>mage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>orc rogue</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ud rogue</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pal?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>human rogue</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>orc warrior</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nb de secondes à partir de quand Rip &gt; FB</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="233">
   <si>
     <t>Panicks</t>
   </si>
@@ -524,12 +971,6 @@
     <t>Owndini</t>
   </si>
   <si>
-    <t>shaman</t>
-  </si>
-  <si>
-    <t>paladin</t>
-  </si>
-  <si>
     <t>Shamsham</t>
   </si>
   <si>
@@ -563,9 +1004,6 @@
     <t>Shamfemal</t>
   </si>
   <si>
-    <t>Shamalow</t>
-  </si>
-  <si>
     <t>Shampion</t>
   </si>
   <si>
@@ -803,12 +1241,6 @@
     <t>15m</t>
   </si>
   <si>
-    <t>two of elementals</t>
-  </si>
-  <si>
-    <t>three of elementals</t>
-  </si>
-  <si>
     <t>titan</t>
   </si>
   <si>
@@ -816,13 +1248,334 @@
   </si>
   <si>
     <t>60+</t>
+  </si>
+  <si>
+    <t>Castnfurious</t>
+  </si>
+  <si>
+    <t>Shamallow</t>
+  </si>
+  <si>
+    <t>Cepamwa</t>
+  </si>
+  <si>
+    <t>pet: Cèlui</t>
+  </si>
+  <si>
+    <t>Iemmeln</t>
+  </si>
+  <si>
+    <t>pet: IemmeOut</t>
+  </si>
+  <si>
+    <t>Gotcha</t>
+  </si>
+  <si>
+    <t>Gouranga</t>
+  </si>
+  <si>
+    <t>Tongdeum</t>
+  </si>
+  <si>
+    <t>Rohipnol</t>
+  </si>
+  <si>
+    <t>Iexomil</t>
+  </si>
+  <si>
+    <t>Archange</t>
+  </si>
+  <si>
+    <t>Youdeshen</t>
+  </si>
+  <si>
+    <t>Paintedz</t>
+  </si>
+  <si>
+    <t>Tetedebite</t>
+  </si>
+  <si>
+    <t>Darkemperoar</t>
+  </si>
+  <si>
+    <t>Mentapotens</t>
+  </si>
+  <si>
+    <t>Nosferat</t>
+  </si>
+  <si>
+    <t>Vithar</t>
+  </si>
+  <si>
+    <t>Volodia</t>
+  </si>
+  <si>
+    <t>Aoisenshi ?</t>
+  </si>
+  <si>
+    <t>Marishka</t>
+  </si>
+  <si>
+    <t>Rip</t>
+  </si>
+  <si>
+    <t>Ferocious Bite</t>
+  </si>
+  <si>
+    <t>FB*0.8</t>
+  </si>
+  <si>
+    <t>t+</t>
+  </si>
+  <si>
+    <t>FB*0.5</t>
+  </si>
+  <si>
+    <t>Rumaru</t>
+  </si>
+  <si>
+    <t>Parpar</t>
+  </si>
+  <si>
+    <t>Hewmans</t>
+  </si>
+  <si>
+    <t>Kensu</t>
+  </si>
+  <si>
+    <t>Undying</t>
+  </si>
+  <si>
+    <t>Makhana</t>
+  </si>
+  <si>
+    <t>Bunito?</t>
+  </si>
+  <si>
+    <t>Nobiahu</t>
+  </si>
+  <si>
+    <t>Asagahu</t>
+  </si>
+  <si>
+    <t>Gankster</t>
+  </si>
+  <si>
+    <t>rogue</t>
+  </si>
+  <si>
+    <t>Niktamer</t>
+  </si>
+  <si>
+    <t>Shamburger</t>
+  </si>
+  <si>
+    <t>Shamas</t>
+  </si>
+  <si>
+    <t>Shammer</t>
+  </si>
+  <si>
+    <t>Shame</t>
+  </si>
+  <si>
+    <t>Shammam</t>
+  </si>
+  <si>
+    <t>Shamster</t>
+  </si>
+  <si>
+    <t>Xshamster</t>
+  </si>
+  <si>
+    <t>Sxhamster</t>
+  </si>
+  <si>
+    <t>Shampered</t>
+  </si>
+  <si>
+    <t>Shamrock</t>
+  </si>
+  <si>
+    <t>Shameless</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>druid</t>
+  </si>
+  <si>
+    <t>sham</t>
+  </si>
+  <si>
+    <t>hunt</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>pala</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>Castncurious</t>
+  </si>
+  <si>
+    <t>Churchnorris</t>
+  </si>
+  <si>
+    <t>Iarcenic</t>
+  </si>
+  <si>
+    <t>Amok</t>
+  </si>
+  <si>
+    <t>Havoc</t>
+  </si>
+  <si>
+    <t>Hamok</t>
+  </si>
+  <si>
+    <t>Smartfella</t>
+  </si>
+  <si>
+    <t>pet:Fartsmella</t>
+  </si>
+  <si>
+    <t>pet:GiveUp</t>
+  </si>
+  <si>
+    <t>Xl</t>
+  </si>
+  <si>
+    <t>Vl</t>
+  </si>
+  <si>
+    <t>Adelfhitlor</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>Frostbuster</t>
+  </si>
+  <si>
+    <t>Lostbuster</t>
+  </si>
+  <si>
+    <t>frost</t>
+  </si>
+  <si>
+    <t>arcane gnome</t>
+  </si>
+  <si>
+    <t>Totem</t>
+  </si>
+  <si>
+    <t>Voodoo</t>
+  </si>
+  <si>
+    <t>Mojo</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Shockeydokey</t>
+  </si>
+  <si>
+    <t>Voodoom</t>
+  </si>
+  <si>
+    <t>shadow troll</t>
+  </si>
+  <si>
+    <t>Shamok</t>
+  </si>
+  <si>
+    <t>Fullretard</t>
+  </si>
+  <si>
+    <t>Activision</t>
+  </si>
+  <si>
+    <t>pet: Blizzard</t>
+  </si>
+  <si>
+    <t>Iittleone</t>
+  </si>
+  <si>
+    <t>gnome, pet:BIGONE</t>
+  </si>
+  <si>
+    <t>Wettmor</t>
+  </si>
+  <si>
+    <t>Skypolice</t>
+  </si>
+  <si>
+    <t>Killerjam</t>
+  </si>
+  <si>
+    <t>loa</t>
+  </si>
+  <si>
+    <t>fetish</t>
+  </si>
+  <si>
+    <t>mambo</t>
+  </si>
+  <si>
+    <t>Illisen</t>
+  </si>
+  <si>
+    <t>Alkhas</t>
+  </si>
+  <si>
+    <t>Xizrat</t>
+  </si>
+  <si>
+    <t>Therom</t>
+  </si>
+  <si>
+    <t>Roxxor</t>
+  </si>
+  <si>
+    <t>orc</t>
+  </si>
+  <si>
+    <t>WARMANE</t>
+  </si>
+  <si>
+    <t>archdevil</t>
+  </si>
+  <si>
+    <t>quieressex</t>
+  </si>
+  <si>
+    <t>igniscarn</t>
+  </si>
+  <si>
+    <t>fraxinus</t>
+  </si>
+  <si>
+    <t>tauren female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +1597,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -872,11 +1638,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,53 +1925,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1214,10 +1982,10 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +2001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +2015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +2026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +2042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +2050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +2058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +2069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +2080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1320,70 +2088,161 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1394,74 +2253,135 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.69140625" customWidth="1"/>
+    <col min="5" max="5" width="4.69140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="5.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.3828125" customWidth="1"/>
+    <col min="9" max="9" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.23046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>105</v>
       </c>
       <c r="D2">
         <v>43</v>
@@ -1488,9 +2408,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>79</v>
@@ -1499,21 +2419,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -1534,7 +2448,7 @@
         <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1543,15 +2457,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
       </c>
       <c r="E5">
         <v>31</v>
@@ -1572,9 +2486,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1592,9 +2506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>97</v>
@@ -1603,35 +2517,38 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
       </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
       <c r="N8">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>51</v>
@@ -1655,18 +2572,18 @@
         <v>300</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>65</v>
@@ -1687,15 +2604,15 @@
         <v>311</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>41</v>
@@ -1713,17 +2630,108 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1732,246 +2740,765 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="7.4609375" customWidth="1"/>
+    <col min="3" max="3" width="6.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" customWidth="1"/>
+    <col min="7" max="7" width="7.07421875" customWidth="1"/>
+    <col min="8" max="8" width="6.921875" customWidth="1"/>
+    <col min="9" max="9" width="6.15234375" customWidth="1"/>
+    <col min="10" max="10" width="6.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>198</v>
+      </c>
+      <c r="D2">
+        <f>C2*0.8</f>
+        <v>158.4</v>
+      </c>
+      <c r="E2">
+        <f>D2/(B2/12)</f>
+        <v>7.04</v>
+      </c>
+      <c r="F2">
+        <f>C2*0.5</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>100</v>
+      <c r="G2">
+        <f>F2/(B2/12)</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>438</v>
+      </c>
+      <c r="C3">
+        <v>326</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3*0.8</f>
+        <v>260.8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">D3/(B3/12)</f>
+        <v>7.1452054794520548</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="2">C3*0.5</f>
+        <v>163</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="3">F3/(B3/12)</f>
+        <v>4.4657534246575343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>606</v>
+      </c>
+      <c r="C4">
+        <v>454</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>363.20000000000005</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>7.1920792079207931</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>4.4950495049504955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>774</v>
+      </c>
+      <c r="C5">
+        <v>582</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>465.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>7.2186046511627913</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>4.5116279069767442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>942</v>
+      </c>
+      <c r="C6">
+        <v>710</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>568</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>7.2356687898089174</v>
+      </c>
+      <c r="F6">
+        <f>C6*0.5</f>
+        <v>355</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>4.5222929936305736</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>